--- a/doc/sprint/sprint_1.xlsx
+++ b/doc/sprint/sprint_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\sgb\doc\sprint\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\training\doc\sprint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E692D95A-007A-46C8-B3B2-A0A115211EF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA5E25E-408E-416D-A073-E4DCF54996D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
   <si>
     <t>Cycle Work Estimate</t>
   </si>
@@ -146,41 +146,6 @@
     <t>TOT</t>
   </si>
   <si>
-    <t>Tien</t>
-  </si>
-  <si>
-    <t>2.01</t>
-  </si>
-  <si>
-    <t>2.02</t>
-  </si>
-  <si>
-    <t>2.03</t>
-  </si>
-  <si>
-    <t>reorganize folder /framework</t>
-  </si>
-  <si>
-    <t>build folders /admin and /client</t>
-  </si>
-  <si>
-    <t>[As] a Developer
-[I want] to research about new framework for client and server</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[As] a Developer
-[I want] to design a database for SGB </t>
-  </si>
-  <si>
-    <t>design ERD for SGB: court booking, academy admin, and CBL admin</t>
-  </si>
-  <si>
-    <t>Hoang</t>
-  </si>
-  <si>
-    <t>Hoang, Tien</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -188,35 +153,171 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">[As] a Developer
-[I want] to develop a client/admin prototype for story: </t>
+      <t>[</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="9"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Registration</t>
+      <t>As</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve">] a Developer
+</t>
     </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[I want]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to research about Ionic3 (Angular 5, Cordova)</t>
+    </r>
+  </si>
+  <si>
+    <t>Ngoc</t>
+  </si>
+  <si>
+    <t>* Building Mobile Apps With Ionic: https://1drv.ms/b/s!Ao4U9J5NJW4xgqc7pQCm_Q4YVZctCQ?e=ZNjF03 
+* Quick Lists (page 216)
+* Develop on the web, build and run on Android/iOS real device</t>
+  </si>
+  <si>
+    <t>1.03</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>As</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">] a Developer
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[I want]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to research about Agile Scrum</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>As</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">] a Developer
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[I want]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to research about Git, Github</t>
+    </r>
+  </si>
+  <si>
+    <t>* What is Agile?
+* What is Scrum?
+* How does Scrum work?</t>
+  </si>
+  <si>
+    <t>* What is Git?
+* What is Github?
+* What is Git-flow?
+* Repository, Clone, Commit, Push, Pull, Branch, Tag?
+* Install SourceTree</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,7 +382,13 @@
     <font>
       <b/>
       <sz val="9"/>
-      <color theme="1"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -606,7 +713,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -719,79 +826,86 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -943,37 +1057,37 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.181818181818183</c:v>
+                  <c:v>9.0909090909090917</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.363636363636363</c:v>
+                  <c:v>8.1818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.545454545454547</c:v>
+                  <c:v>7.2727272727272734</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.727272727272727</c:v>
+                  <c:v>6.3636363636363633</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.909090909090908</c:v>
+                  <c:v>5.4545454545454541</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.0909090909090917</c:v>
+                  <c:v>4.5454545454545459</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.2727272727272734</c:v>
+                  <c:v>3.6363636363636367</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.454545454545455</c:v>
+                  <c:v>2.7272727272727275</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.6363636363636367</c:v>
+                  <c:v>1.8181818181818183</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.8181818181818166</c:v>
+                  <c:v>0.90909090909090828</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -1053,40 +1167,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1231,7 +1345,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="sv-SE" sz="1400" b="1" baseline="0"/>
-            <a:t> 	Monday, 04/11/2019 - Saturday,  16/11/2019</a:t>
+            <a:t> 	Monday, 30/12/2019 - Saturday,  11/01/2020</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1241,7 +1355,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="sv-SE" sz="1400" b="1" i="0" baseline="0"/>
-            <a:t>SGB project</a:t>
+            <a:t>Training project</a:t>
           </a:r>
           <a:endParaRPr lang="sv-SE" sz="1400" b="1" baseline="0"/>
         </a:p>
@@ -1284,7 +1398,7 @@
             <a:rPr lang="sv-SE" sz="1400" b="1" baseline="0">
               <a:latin typeface="+mn-lt"/>
             </a:rPr>
-            <a:t>. Sprint planning:	9:00 - 12:00, 04</a:t>
+            <a:t>. Sprint planning:	9:00 - 12:00, 30</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="vi-VN" sz="1400" b="1" baseline="0">
@@ -1308,7 +1422,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>11</a:t>
+            <a:t>12</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="vi-VN" sz="1400" b="1" baseline="0">
@@ -1351,7 +1465,7 @@
             <a:rPr lang="sv-SE" sz="1400" b="1">
               <a:latin typeface="+mn-lt"/>
             </a:rPr>
-            <a:t>	. Sprint review:	9:00 - 12:00, 16</a:t>
+            <a:t>	. Sprint review:	9:00 - 12:00, 11</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
@@ -1363,7 +1477,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>/11</a:t>
+            <a:t>/01</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="vi-VN" sz="1400" b="1" baseline="0">
@@ -1398,7 +1512,7 @@
             <a:rPr lang="sv-SE" sz="1400" b="1">
               <a:latin typeface="+mn-lt"/>
             </a:rPr>
-            <a:t>	. Sprint retrospective:	15:00 - 17:00, 16</a:t>
+            <a:t>	. Sprint retrospective:	15:00 - 17:00, 11</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="vi-VN" sz="1400" b="1" baseline="0">
@@ -1422,7 +1536,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>11</a:t>
+            <a:t>01</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="vi-VN" sz="1400" b="1" baseline="0">
@@ -1455,11 +1569,11 @@
         <a:p>
           <a:r>
             <a:rPr lang="sv-SE" sz="1400" b="1"/>
-            <a:t>Team:	Tiến (SM)</a:t>
+            <a:t>Team:	Ngoc (SM)</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="sv-SE" sz="1400" b="1" baseline="0"/>
-            <a:t>, Hoang (Adviser)</a:t>
+            <a:t>, Tien (Adviser)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1815,8 +1929,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B21:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1831,16 +1945,16 @@
   <sheetData>
     <row r="21" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="53"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="50"/>
     </row>
     <row r="23" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
@@ -1852,13 +1966,13 @@
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="50"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="47"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="3"/>
@@ -1898,7 +2012,7 @@
         <v>6</v>
       </c>
       <c r="F26" s="10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="3"/>
@@ -1947,18 +2061,18 @@
         <v>1</v>
       </c>
       <c r="C29" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" s="15">
         <v>10</v>
       </c>
       <c r="E29" s="16">
         <f>C29*D29</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F29" s="16">
         <f>E29/D26</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G29" s="17">
         <v>3</v>
@@ -2019,14 +2133,14 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="35" style="47" customWidth="1"/>
+    <col min="2" max="2" width="35" style="44" customWidth="1"/>
     <col min="4" max="4" width="53.5703125" style="38" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" customWidth="1"/>
     <col min="6" max="7" width="4.5703125" customWidth="1"/>
@@ -2061,7 +2175,7 @@
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="28"/>
       <c r="B2" s="39" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C2" s="29">
         <v>20</v>
@@ -2069,48 +2183,48 @@
       <c r="D2" s="37"/>
       <c r="E2" s="32"/>
       <c r="F2" s="32">
-        <f t="shared" ref="F2:S2" si="0">SUM(F6:F8)</f>
-        <v>20</v>
+        <f>SUM(F6:F10)</f>
+        <v>10</v>
       </c>
       <c r="G2" s="32">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f t="shared" ref="G2:S2" si="0">SUM(G6:G10)</f>
+        <v>10</v>
       </c>
       <c r="H2" s="32">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I2" s="32">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J2" s="32">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K2" s="32">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L2" s="32">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M2" s="32">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N2" s="32">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O2" s="32">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P2" s="32">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="32">
         <f t="shared" si="0"/>
@@ -2126,44 +2240,44 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="F3" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="56"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="53"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="58"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="55"/>
       <c r="F4" s="33" t="s">
         <v>35</v>
       </c>
@@ -2208,13 +2322,13 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="41">
+      <c r="A5" s="40">
         <v>7</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
       <c r="H5" s="34"/>
@@ -2231,190 +2345,124 @@
       <c r="S5" s="34"/>
     </row>
     <row r="6" spans="1:19" ht="36" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="46" t="s">
+      <c r="A6" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="28">
-        <v>6</v>
-      </c>
-      <c r="D6" s="40" t="s">
+      <c r="B6" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="67">
+        <v>2</v>
+      </c>
+      <c r="D6" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="28">
+        <f t="shared" ref="F6" si="1">C6</f>
+        <v>2</v>
+      </c>
+      <c r="G6" s="35">
+        <f t="shared" ref="G6" si="2">F6</f>
+        <v>2</v>
+      </c>
+      <c r="H6" s="35">
+        <f t="shared" ref="H6" si="3">G6</f>
+        <v>2</v>
+      </c>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+    </row>
+    <row r="7" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="67">
+        <v>3</v>
+      </c>
+      <c r="D7" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="28">
+        <f t="shared" ref="F7" si="4">C7</f>
+        <v>3</v>
+      </c>
+      <c r="G7" s="35">
+        <f t="shared" ref="G7" si="5">F7</f>
+        <v>3</v>
+      </c>
+      <c r="H7" s="35">
+        <f t="shared" ref="H7" si="6">G7</f>
+        <v>3</v>
+      </c>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+    </row>
+    <row r="8" spans="1:19" s="62" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A8" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="67">
+        <v>5</v>
+      </c>
+      <c r="D8" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="28">
-        <f t="shared" ref="F6:F8" si="1">C6</f>
-        <v>6</v>
-      </c>
-      <c r="G6" s="35">
-        <f>F6</f>
-        <v>6</v>
-      </c>
-      <c r="H6" s="35">
-        <f>G6</f>
-        <v>6</v>
-      </c>
-      <c r="I6" s="36">
+      <c r="E8" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="63">
+        <f t="shared" ref="F8" si="7">C8</f>
         <v>5</v>
       </c>
-      <c r="J6" s="36">
-        <v>4</v>
-      </c>
-      <c r="K6" s="36">
-        <v>4</v>
-      </c>
-      <c r="L6" s="36">
-        <v>3</v>
-      </c>
-      <c r="M6" s="36">
-        <v>2</v>
-      </c>
-      <c r="N6" s="36">
-        <v>1</v>
-      </c>
-      <c r="O6" s="36">
-        <v>1</v>
-      </c>
-      <c r="P6" s="36">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="36">
-        <v>0</v>
-      </c>
-      <c r="R6" s="36">
-        <v>0</v>
-      </c>
-      <c r="S6" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="36" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="28">
-        <v>10</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="28">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="G7" s="35">
-        <f t="shared" ref="G7:G8" si="2">F7</f>
-        <v>10</v>
-      </c>
-      <c r="H7" s="35">
-        <f t="shared" ref="H7:H8" si="3">G7</f>
-        <v>10</v>
-      </c>
-      <c r="I7" s="36">
-        <v>9</v>
-      </c>
-      <c r="J7" s="36">
-        <v>8</v>
-      </c>
-      <c r="K7" s="36">
-        <v>7</v>
-      </c>
-      <c r="L7" s="36">
-        <v>6</v>
-      </c>
-      <c r="M7" s="36">
+      <c r="G8" s="35">
+        <f t="shared" ref="G8" si="8">F8</f>
         <v>5</v>
       </c>
-      <c r="N7" s="36">
-        <v>3</v>
-      </c>
-      <c r="O7" s="36">
-        <v>2</v>
-      </c>
-      <c r="P7" s="36">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="36">
-        <v>0</v>
-      </c>
-      <c r="R7" s="36">
-        <v>0</v>
-      </c>
-      <c r="S7" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="28">
-        <v>4</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="28">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="G8" s="35">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
       <c r="H8" s="35">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="I8" s="36">
-        <v>3</v>
-      </c>
-      <c r="J8" s="36">
-        <v>2</v>
-      </c>
-      <c r="K8" s="36">
-        <v>1</v>
-      </c>
-      <c r="L8" s="36">
-        <v>1</v>
-      </c>
-      <c r="M8" s="36">
-        <v>1</v>
-      </c>
-      <c r="N8" s="36">
-        <v>0</v>
-      </c>
-      <c r="O8" s="36">
-        <v>0</v>
-      </c>
-      <c r="P8" s="36">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="36">
-        <v>0</v>
-      </c>
-      <c r="R8" s="36">
-        <v>0</v>
-      </c>
-      <c r="S8" s="36">
-        <v>0</v>
-      </c>
+        <f t="shared" ref="H8" si="9">G8</f>
+        <v>5</v>
+      </c>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2426,22 +2474,22 @@
     <mergeCell ref="E3:E4"/>
   </mergeCells>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="5" priority="14">
+    <cfRule type="expression" dxfId="5" priority="10">
       <formula>#REF!="rejected"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="4" priority="13">
+    <cfRule type="expression" dxfId="4" priority="9">
       <formula>#REF!="rejected"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="3" priority="12">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>#REF!="rejected"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="2" priority="11">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>#REF!="rejected"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2465,8 +2513,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2501,14 +2549,14 @@
       </c>
       <c r="B2" s="27">
         <f>Story!$G$2-(Story!$G$2*E2)/11</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C2" s="26">
         <f>IF(D2="*",Story!H2,NA())</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E2" s="26">
         <v>0</v>
@@ -2520,15 +2568,13 @@
       </c>
       <c r="B3" s="27">
         <f>Story!$G$2-(Story!$G$2*E3)/11</f>
-        <v>18.181818181818183</v>
-      </c>
-      <c r="C3" s="26">
+        <v>9.0909090909090917</v>
+      </c>
+      <c r="C3" s="26" t="e">
         <f>IF(D3="*",Story!I2,NA())</f>
-        <v>17</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>49</v>
-      </c>
+        <v>#N/A</v>
+      </c>
+      <c r="D3" s="26"/>
       <c r="E3" s="26">
         <v>1</v>
       </c>
@@ -2539,15 +2585,13 @@
       </c>
       <c r="B4" s="27">
         <f>Story!$G$2-(Story!$G$2*E4)/11</f>
-        <v>16.363636363636363</v>
-      </c>
-      <c r="C4" s="26">
+        <v>8.1818181818181817</v>
+      </c>
+      <c r="C4" s="26" t="e">
         <f>IF(D4="*",Story!J2,NA())</f>
-        <v>14</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>49</v>
-      </c>
+        <v>#N/A</v>
+      </c>
+      <c r="D4" s="26"/>
       <c r="E4" s="26">
         <v>2</v>
       </c>
@@ -2558,15 +2602,13 @@
       </c>
       <c r="B5" s="27">
         <f>Story!$G$2-(Story!$G$2*E5)/11</f>
-        <v>14.545454545454547</v>
-      </c>
-      <c r="C5" s="26">
+        <v>7.2727272727272734</v>
+      </c>
+      <c r="C5" s="26" t="e">
         <f>IF(D5="*",Story!K2,NA())</f>
-        <v>12</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>49</v>
-      </c>
+        <v>#N/A</v>
+      </c>
+      <c r="D5" s="26"/>
       <c r="E5" s="26">
         <v>3</v>
       </c>
@@ -2577,15 +2619,13 @@
       </c>
       <c r="B6" s="27">
         <f>Story!$G$2-(Story!$G$2*E6)/11</f>
-        <v>12.727272727272727</v>
-      </c>
-      <c r="C6" s="26">
+        <v>6.3636363636363633</v>
+      </c>
+      <c r="C6" s="26" t="e">
         <f>IF(D6="*",Story!L2,NA())</f>
-        <v>10</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>49</v>
-      </c>
+        <v>#N/A</v>
+      </c>
+      <c r="D6" s="26"/>
       <c r="E6" s="26">
         <v>4</v>
       </c>
@@ -2596,15 +2636,13 @@
       </c>
       <c r="B7" s="27">
         <f>Story!$G$2-(Story!$G$2*E7)/11</f>
-        <v>10.909090909090908</v>
-      </c>
-      <c r="C7" s="26">
+        <v>5.4545454545454541</v>
+      </c>
+      <c r="C7" s="26" t="e">
         <f>IF(D7="*",Story!M2,NA())</f>
-        <v>8</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>49</v>
-      </c>
+        <v>#N/A</v>
+      </c>
+      <c r="D7" s="26"/>
       <c r="E7" s="26">
         <v>5</v>
       </c>
@@ -2615,15 +2653,13 @@
       </c>
       <c r="B8" s="27">
         <f>Story!$G$2-(Story!$G$2*E8)/11</f>
-        <v>9.0909090909090917</v>
-      </c>
-      <c r="C8" s="26">
+        <v>4.5454545454545459</v>
+      </c>
+      <c r="C8" s="26" t="e">
         <f>IF(D8="*",Story!N2,NA())</f>
-        <v>4</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>49</v>
-      </c>
+        <v>#N/A</v>
+      </c>
+      <c r="D8" s="26"/>
       <c r="E8" s="26">
         <v>6</v>
       </c>
@@ -2634,15 +2670,13 @@
       </c>
       <c r="B9" s="27">
         <f>Story!$G$2-(Story!$G$2*E9)/11</f>
-        <v>7.2727272727272734</v>
-      </c>
-      <c r="C9" s="26">
+        <v>3.6363636363636367</v>
+      </c>
+      <c r="C9" s="26" t="e">
         <f>IF(D9="*",Story!O2,NA())</f>
-        <v>3</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>49</v>
-      </c>
+        <v>#N/A</v>
+      </c>
+      <c r="D9" s="26"/>
       <c r="E9" s="26">
         <v>7</v>
       </c>
@@ -2653,15 +2687,13 @@
       </c>
       <c r="B10" s="27">
         <f>Story!$G$2-(Story!$G$2*E10)/11</f>
-        <v>5.454545454545455</v>
-      </c>
-      <c r="C10" s="26">
+        <v>2.7272727272727275</v>
+      </c>
+      <c r="C10" s="26" t="e">
         <f>IF(D10="*",Story!P2,NA())</f>
-        <v>1</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>49</v>
-      </c>
+        <v>#N/A</v>
+      </c>
+      <c r="D10" s="26"/>
       <c r="E10" s="26">
         <v>8</v>
       </c>
@@ -2672,15 +2704,13 @@
       </c>
       <c r="B11" s="27">
         <f>Story!$G$2-(Story!$G$2*E11)/11</f>
-        <v>3.6363636363636367</v>
-      </c>
-      <c r="C11" s="26">
+        <v>1.8181818181818183</v>
+      </c>
+      <c r="C11" s="26" t="e">
         <f>IF(D11="*",Story!Q2,NA())</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>49</v>
-      </c>
+        <v>#N/A</v>
+      </c>
+      <c r="D11" s="26"/>
       <c r="E11" s="26">
         <v>9</v>
       </c>
@@ -2691,15 +2721,13 @@
       </c>
       <c r="B12" s="27">
         <f>Story!$G$2-(Story!$G$2*E12)/11</f>
-        <v>1.8181818181818166</v>
-      </c>
-      <c r="C12" s="26">
+        <v>0.90909090909090828</v>
+      </c>
+      <c r="C12" s="26" t="e">
         <f>IF(D12="*",Story!R2,NA())</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>49</v>
-      </c>
+        <v>#N/A</v>
+      </c>
+      <c r="D12" s="26"/>
       <c r="E12" s="26">
         <v>10</v>
       </c>
@@ -2712,13 +2740,11 @@
         <f>Story!$G$2-(Story!$G$2*E13)/11</f>
         <v>0</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="26" t="e">
         <f>IF(D13="*",Story!S2,NA())</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>49</v>
-      </c>
+        <v>#N/A</v>
+      </c>
+      <c r="D13" s="26"/>
       <c r="E13" s="26">
         <v>11</v>
       </c>
